--- a/database/DemoAPITestCase.xlsx
+++ b/database/DemoAPITestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>module</t>
   </si>
@@ -63,7 +63,7 @@
     <t>处方记录</t>
   </si>
   <si>
-    <t>quest_query_001</t>
+    <t>query_001</t>
   </si>
   <si>
     <t>查询手机号为15835547888的处方</t>
@@ -78,7 +78,7 @@
     <t>{"search":"15835547888","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":""}</t>
   </si>
   <si>
-    <t>[{"id": 1357, "shop_id": 27, "shop_name": "安徽德胜大药房-双岗店", "user_drugs_name": "周宇", "card_no": "34240119881231991X", "phone": "15835547888", "diag_id": "21553344682942", "prescription_url": "upload/mf-backend-project/prescription/2021-09-01/95a94b1f9daa014daa04ef3413ae5c3d.png", "status": 4, "remark": "", "created_at": "1630463783", "user_drug": {"id": 378, "order_id": 1357, "name": "周宇", "card_no": "34240119881231991X", "phone": "15835547888", "birthday": "1988-12-31", "sex": 1, "age": 33, "address": "hsajijwhhyjjm", "is_diagnosis": 0, "is_allergy": 0, "is_taboo": 1, "is_adverse": 0, "created_at": "1630463783"}, "disease": [{"order_id": 1357, "disease_id": "97648", "disease_name": "中耳炎"}]}]</t>
+    <t>[{"id":1493,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21629586437983","prescription_url":"upload/mf-backend-project/prescription/2021-11-16/b8b14bc6f33ba9014b825fac068a993f.png","status":3,"remark":"门店审核不通过","created_at":"1637042712","user_drug":{"id":514,"order_id":1493,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042712"},"disease":[{"order_id":1493,"disease_id":"8987","disease_name":"感冒"},{"order_id":1493,"disease_id":"16080","disease_name":"鼻塞"},{"order_id":1493,"disease_id":"27867","disease_name":"风寒外袭证"},{"order_id":1493,"disease_id":"9820","disease_name":"牙拥挤"}]},{"id":1476,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21621578066811","prescription_url":"","status":3,"remark":"不对症","created_at":"1636352894","user_drug":{"id":497,"order_id":1476,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1636352894"},"disease":[{"order_id":1476,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1357,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21553344682942","prescription_url":"upload/mf-backend-project/prescription/2021-09-01/95a94b1f9daa014daa04ef3413ae5c3d.png","status":4,"remark":"","created_at":"1630463783","user_drug":{"id":378,"order_id":1357,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":0,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1630463783"},"disease":[{"order_id":1357,"disease_id":"97648","disease_name":"中耳炎"}]}]</t>
   </si>
   <si>
     <t>json</t>
@@ -87,7 +87,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>quest_query_002</t>
+    <t>query_002</t>
   </si>
   <si>
     <t>查询处方状态未【已取消】的订单</t>
@@ -96,7 +96,47 @@
     <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":3}</t>
   </si>
   <si>
-    <t>[{"id":1355,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21545315652261","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629776345","user_drug":{"id":376,"order_id":1355,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629776345"},"disease":[{"order_id":1355,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1353,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21545315652253","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629775454","user_drug":{"id":374,"order_id":1353,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775454"},"disease":[{"order_id":1353,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1352,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315711446","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629774360","user_drug":{"id":373,"order_id":1352,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774360"},"disease":[{"order_id":1352,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1350,"shop_id":6,"shop_name":"德胜测试门店","user_drugs_name":"余龙艳","card_no":"342901198907176648","phone":"18155458989","diag_id":"21545315771410","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629773729","user_drug":{"id":371,"order_id":1350,"name":"余龙艳","card_no":"342901198907176648","phone":"18155458989","birthday":"1989-07-17","sex":2,"age":32,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629773729"},"disease":[{"order_id":1350,"disease_id":"16331","disease_name":"头痛"}]},{"id":1347,"shop_id":6,"shop_name":"德胜测试门店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21539310179622","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629274810","user_drug":{"id":368,"order_id":1347,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629274810"},"disease":[{"order_id":1347,"disease_id":"96113","disease_name":"神经性头痛"}]},{"id":1344,"shop_id":6,"shop_name":"德胜测试门店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21539308142085","prescription_url":"upload/mf-backend-project/prescription/2021-08-18/b87f7563f205f2bf1d3ec296cd23f3bd.png","status":3,"remark":"互联网医院结束问诊","created_at":"1629267078","user_drug":{"id":365,"order_id":1344,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629267078"},"disease":[{"order_id":1344,"disease_id":"96143","disease_name":"失眠"}]},{"id":1343,"shop_id":6,"shop_name":"德胜测试门店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21539308080057","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629252986","user_drug":{"id":364,"order_id":1343,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629252986"},"disease":[{"order_id":1343,"disease_id":"99540","disease_name":"消化不良"}]},{"id":1342,"shop_id":6,"shop_name":"德胜测试门店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21539304628334","prescription_url":"","status":3,"remark":"不对症","created_at":"1629252921","user_drug":{"id":363,"order_id":1342,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629252921"},"disease":[{"order_id":1342,"disease_id":"27853","disease_name":"风邪外袭证"}]},{"id":1341,"shop_id":6,"shop_name":"德胜测试门店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21539307862538","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629252854","user_drug":{"id":362,"order_id":1341,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629252854"},"disease":[{"order_id":1341,"disease_id":"8987","disease_name":"感冒"},{"order_id":1341,"disease_id":"98487","disease_name":"急性咽喉痛"}]},{"id":1340,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538307862410","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200226","user_drug":{"id":361,"order_id":1340,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200226"},"disease":[{"order_id":1340,"disease_id":"8987","disease_name":"感冒"}]}]</t>
+    <t>[{"id":1493,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21629586437983","prescription_url":"upload/mf-backend-project/prescription/2021-11-16/b8b14bc6f33ba9014b825fac068a993f.png","status":3,"remark":"门店审核不通过","created_at":"1637042712","user_drug":{"id":514,"order_id":1493,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042712"},"disease":[{"order_id":1493,"disease_id":"8987","disease_name":"感冒"},{"order_id":1493,"disease_id":"16080","disease_name":"鼻塞"},{"order_id":1493,"disease_id":"27867","disease_name":"风寒外袭证"},{"order_id":1493,"disease_id":"9820","disease_name":"牙拥挤"}]},{"id":1492,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21629586369185","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1637042548","user_drug":{"id":513,"order_id":1492,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042548"},"disease":[{"order_id":1492,"disease_id":"27901","disease_name":"风热外袭证"}]},{"id":1491,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21629586437979","prescription_url":"","status":3,"remark":"用法用量错误","created_at":"1637042513","user_drug":{"id":512,"order_id":1491,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042513"},"disease":[{"order_id":1491,"disease_id":"98579","disease_name":"过敏性鼻炎"},{"order_id":1491,"disease_id":"27853","disease_name":"风邪外袭证"},{"order_id":1491,"disease_id":"98584","disease_name":"慢性鼻炎"}]},{"id":1489,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21629638086083","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637031217","user_drug":{"id":510,"order_id":1489,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637031217"},"disease":[{"order_id":1489,"disease_id":"8988","disease_name":"胃肠型感冒"}]},{"id":1488,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21629638086075","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637031090","user_drug":{"id":509,"order_id":1488,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637031090"},"disease":[{"order_id":1488,"disease_id":"8023","disease_name":"冠心病"},{"order_id":1488,"disease_id":"27344","disease_name":"中风病"},{"order_id":1488,"disease_id":"92831","disease_name":"缺铁性贫血"},{"order_id":1488,"disease_id":"97856","disease_name":"心绞痛"},{"order_id":1488,"disease_id":"9047","disease_name":"上呼吸道感染"}]},{"id":1487,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21629637896497","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637030971","user_drug":{"id":508,"order_id":1487,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637030971"},"disease":[{"order_id":1487,"disease_id":"8987","disease_name":"感冒"},{"order_id":1487,"disease_id":"98577","disease_name":"过敏性鼻炎(变应性鼻炎)"},{"order_id":1487,"disease_id":"9176","disease_name":"鼻窦炎"},{"order_id":1487,"disease_id":"100702","disease_name":"黑头粉刺"}]},{"id":1486,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21629637445842","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637030908","user_drug":{"id":507,"order_id":1486,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637030908"},"disease":[{"order_id":1486,"disease_id":"27867","disease_name":"风寒外袭证"},{"order_id":1486,"disease_id":"102434","disease_name":"骨质疏松"}]},{"id":1485,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21629638086063","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637030862","user_drug":{"id":506,"order_id":1485,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637030862"},"disease":[{"order_id":1485,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1484,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21624610654159","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1636621641","user_drug":{"id":505,"order_id":1484,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1636621641"},"disease":[{"order_id":1484,"disease_id":"12565","disease_name":"骨质增生"},{"order_id":1484,"disease_id":"101714","disease_name":"椎动脉型颈椎病"},{"order_id":1484,"disease_id":"101715","disease_name":"脊髓型颈椎病"},{"order_id":1484,"disease_id":"101111","disease_name":"骨关节炎"}]},{"id":1483,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21624607867997","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1636621600","user_drug":{"id":504,"order_id":1483,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1636621600"},"disease":[{"order_id":1483,"disease_id":"776","disease_name":"幽门螺旋杆菌感染"},{"order_id":1483,"disease_id":"12565","disease_name":"骨质增生"},{"order_id":1483,"disease_id":"9108","disease_name":"肺炎"},{"order_id":1483,"disease_id":"11306","disease_name":"软组织感染"},{"order_id":1483,"disease_id":"81949","disease_name":"钩端螺旋体病"}]}]</t>
+  </si>
+  <si>
+    <t>query_003</t>
+  </si>
+  <si>
+    <t>查询处方状态为【待药师开方】，
+药店为【安徽德胜大药房-双岗店】</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":27,"status":0}</t>
+  </si>
+  <si>
+    <t>[{"id":1479,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21621587929237","prescription_url":"","status":0,"remark":"","created_at":"1636369376","user_drug":{"id":500,"order_id":1479,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1636369376"},"disease":[{"order_id":1479,"disease_id":"79962","disease_name":"湿热"},{"order_id":1479,"disease_id":"98579","disease_name":"过敏性鼻炎"},{"order_id":1479,"disease_id":"16091","disease_name":"咽痛"},{"order_id":1479,"disease_id":"8987","disease_name":"感冒"},{"order_id":1479,"disease_id":"16331","disease_name":"头痛"},{"order_id":1479,"disease_id":"12565","disease_name":"骨质增生"}]}]</t>
+  </si>
+  <si>
+    <t>query_004</t>
+  </si>
+  <si>
+    <t>查询日期在【2021/11/16-2021/11/18】
+的处方单</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":"","status":""}</t>
+  </si>
+  <si>
+    <t>[{"id":1493,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21629586437983","prescription_url":"upload/mf-backend-project/prescription/2021-11-16/b8b14bc6f33ba9014b825fac068a993f.png","status":3,"remark":"门店审核不通过","created_at":"1637042712","user_drug":{"id":514,"order_id":1493,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042712"},"disease":[{"order_id":1493,"disease_id":"8987","disease_name":"感冒"},{"order_id":1493,"disease_id":"16080","disease_name":"鼻塞"},{"order_id":1493,"disease_id":"27867","disease_name":"风寒外袭证"},{"order_id":1493,"disease_id":"9820","disease_name":"牙拥挤"}]},{"id":1492,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21629586369185","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1637042548","user_drug":{"id":513,"order_id":1492,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042548"},"disease":[{"order_id":1492,"disease_id":"27901","disease_name":"风热外袭证"}]},{"id":1491,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21629586437979","prescription_url":"","status":3,"remark":"用法用量错误","created_at":"1637042513","user_drug":{"id":512,"order_id":1491,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042513"},"disease":[{"order_id":1491,"disease_id":"98579","disease_name":"过敏性鼻炎"},{"order_id":1491,"disease_id":"27853","disease_name":"风邪外袭证"},{"order_id":1491,"disease_id":"98584","disease_name":"慢性鼻炎"}]},{"id":1490,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21629639020804","prescription_url":"upload/mf-backend-project/prescription/2021-11-16/2d92161c0b58d229cb93a95822cab026.png","status":5,"remark":"","created_at":"1637042465","user_drug":{"id":511,"order_id":1490,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042465"},"disease":[{"order_id":1490,"disease_id":"16091","disease_name":"咽痛"},{"order_id":1490,"disease_id":"8987","disease_name":"感冒"},{"order_id":1490,"disease_id":"102434","disease_name":"骨质疏松"}]},{"id":1489,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21629638086083","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637031217","user_drug":{"id":510,"order_id":1489,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637031217"},"disease":[{"order_id":1489,"disease_id":"8988","disease_name":"胃肠型感冒"}]},{"id":1488,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21629638086075","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637031090","user_drug":{"id":509,"order_id":1488,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637031090"},"disease":[{"order_id":1488,"disease_id":"8023","disease_name":"冠心病"},{"order_id":1488,"disease_id":"27344","disease_name":"中风病"},{"order_id":1488,"disease_id":"92831","disease_name":"缺铁性贫血"},{"order_id":1488,"disease_id":"97856","disease_name":"心绞痛"},{"order_id":1488,"disease_id":"9047","disease_name":"上呼吸道感染"}]},{"id":1487,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21629637896497","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637030971","user_drug":{"id":508,"order_id":1487,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637030971"},"disease":[{"order_id":1487,"disease_id":"8987","disease_name":"感冒"},{"order_id":1487,"disease_id":"98577","disease_name":"过敏性鼻炎(变应性鼻炎)"},{"order_id":1487,"disease_id":"9176","disease_name":"鼻窦炎"},{"order_id":1487,"disease_id":"100702","disease_name":"黑头粉刺"}]},{"id":1486,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21629637445842","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637030908","user_drug":{"id":507,"order_id":1486,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637030908"},"disease":[{"order_id":1486,"disease_id":"27867","disease_name":"风寒外袭证"},{"order_id":1486,"disease_id":"102434","disease_name":"骨质疏松"}]},{"id":1485,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21629638086063","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637030862","user_drug":{"id":506,"order_id":1485,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637030862"},"disease":[{"order_id":1485,"disease_id":"12565","disease_name":"骨质增生"}]}]</t>
+  </si>
+  <si>
+    <t>query_005</t>
+  </si>
+  <si>
+    <t>查询日期在【2021/11/16-2021/11/18】,
+店铺：安徽德胜大药房-双岗店,
+状态：已完成</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":27,"status":5}</t>
+  </si>
+  <si>
+    <t>[{"id":1490,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21629639020804","prescription_url":"upload/mf-backend-project/prescription/2021-11-16/2d92161c0b58d229cb93a95822cab026.png","status":5,"remark":"","created_at":"1637042465","user_drug":{"id":511,"order_id":1490,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042465"},"disease":[{"order_id":1490,"disease_id":"16091","disease_name":"咽痛"},{"order_id":1490,"disease_id":"8987","disease_name":"感冒"},{"order_id":1490,"disease_id":"102434","disease_name":"骨质疏松"}]}]</t>
   </si>
   <si>
     <t>{"id":1357,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21553344682942","prescription_url":"upload\/mf-backend-project\/prescription\/2021-09-01\/95a94b1f9daa014daa04ef3413ae5c3d.png","status":4,"remark":"","created_at":"1630463783","user_drug":{"id":378,"order_id":1357,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":0,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1630463783"},"disease":[{"order_id":1357,"disease_id":"97648","disease_name":"中耳炎"}]},{"id":1355,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21545315652261","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629776345","user_drug":{"id":376,"order_id":1355,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629776345"},"disease":[{"order_id":1355,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1354,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21545315664659","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-24\/806e2ff931b4ebe2320d5b81d983addf.png","status":5,"remark":"","created_at":"1629775691","user_drug":{"id":375,"order_id":1354,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775691"},"disease":[{"order_id":1354,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1353,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21545315652253","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629775454","user_drug":{"id":374,"order_id":1353,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775454"},"disease":[{"order_id":1353,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1352,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315711446","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629774360","user_drug":{"id":373,"order_id":1352,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774360"},"disease":[{"order_id":1352,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1351,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315684262","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-30\/28cc98e372687671376ed46cab4a4bd1.png","status":5,"remark":"","created_at":"1629774098","user_drug":{"id":372,"order_id":1351,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774098"},"disease":[{"order_id":1351,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1345,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"许贵林","card_no":"340111199206123537","phone":"18155256235","diag_id":"21539308080089","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-23\/a368cabd9c726129fef7eb1ea274ec17.png","status":5,"remark":"","created_at":"1629268043","user_drug":{"id":366,"order_id":1345,"name":"许贵林","card_no":"340111199206123537","phone":"18155256235","birthday":"1992-06-12","sex":1,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629268043"},"disease":[{"order_id":1345,"disease_id":"8987","disease_name":"感冒"}]},{"id":1340,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538307862410","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200226","user_drug":{"id":361,"order_id":1340,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200226"},"disease":[{"order_id":1340,"disease_id":"8987","disease_name":"感冒"}]},{"id":1339,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538304925388","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200151","user_drug":{"id":360,"order_id":1339,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200151"},"disease":[{"order_id":1339,"disease_id":"7877","disease_name":"高血压"}]},{"id":1338,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538303986713","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629198992","user_drug":{"id":359,"order_id":1338,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629198992"},"disease":[{"order_id":1338,"disease_id":"16080","disease_name":"鼻塞"}]}</t>
@@ -107,9 +147,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -128,6 +168,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00FF00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF808000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -136,43 +257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF00FF00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF808000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,15 +273,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,53 +311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -264,21 +319,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -301,49 +341,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,37 +467,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,91 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,9 +552,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,8 +588,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,17 +605,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,10 +667,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,125 +679,125 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -783,8 +823,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -795,14 +835,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1163,14 +1200,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="56" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="21.375" style="2" customWidth="1"/>
@@ -1242,7 +1279,7 @@
       <c r="F2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1266,7 +1303,7 @@
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1279,60 +1316,110 @@
       <c r="H3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" ht="30" customHeight="1" spans="1:13">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
+      <c r="M3" s="16"/>
+    </row>
+    <row r="4" ht="84" customHeight="1" spans="1:11">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
+      <c r="H4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="K4" s="7"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" ht="30" customHeight="1" spans="1:13">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
+    </row>
+    <row r="5" ht="42" customHeight="1" spans="1:11">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
+      <c r="H5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" ht="43.5" customHeight="1" spans="1:13">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7"/>
+    </row>
+    <row r="6" ht="52" customHeight="1" spans="1:13">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
+      <c r="H6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="17"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" ht="55.5" customHeight="1" spans="1:13">
       <c r="A7" s="8"/>
@@ -1343,11 +1430,11 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="7"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="17"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" ht="57" customHeight="1" spans="1:13">
       <c r="A8" s="8"/>
@@ -1358,11 +1445,11 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="7"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="17"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" ht="52.5" customHeight="1" spans="1:13">
       <c r="A9" s="8"/>
@@ -1373,11 +1460,11 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="7"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="17"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" ht="51.75" customHeight="1" spans="1:13">
       <c r="A10" s="8"/>
@@ -1388,11 +1475,11 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="7"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="17"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" ht="35.25" customHeight="1" spans="1:13">
       <c r="A11" s="8"/>
@@ -1403,11 +1490,11 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:13">
       <c r="A12" s="8"/>
@@ -1418,11 +1505,11 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:13">
       <c r="A13" s="8"/>
@@ -1433,11 +1520,11 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:13">
       <c r="A14" s="8"/>
@@ -1448,11 +1535,11 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" ht="26.25" customHeight="1" spans="1:13">
       <c r="A15" s="8"/>
@@ -1463,11 +1550,11 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="10"/>
@@ -1559,8 +1646,7 @@
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://mf-backend.lyky.xyz:8188/backend/order/list"/>
-    <hyperlink ref="D2" r:id="rId1" display="http://mf-backend.lyky.xyz:8188/backend/order/list" tooltip="http://mf-backend.lyky.xyz:8188/backend/order/list"/>
+    <hyperlink ref="D6" r:id="rId1" display="http://mf-backend.lyky.xyz:8188/backend/order/list" tooltip="http://mf-backend.lyky.xyz:8188/backend/order/list"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1574,17 +1660,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" ht="378" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1603,7 +1683,7 @@
   <sheetData>
     <row r="1" ht="409.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/database/DemoAPITestCase.xlsx
+++ b/database/DemoAPITestCase.xlsx
@@ -69,7 +69,7 @@
     <t>查询手机号为15835547888的处方</t>
   </si>
   <si>
-    <t>http://mf-backend.lyky.xyz:8188/backend/order/list</t>
+    <t>http://mf-backend.lyky.xyz/backend/order/list</t>
   </si>
   <si>
     <t>post</t>
@@ -147,9 +147,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -168,6 +168,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF00FF00"/>
@@ -182,6 +190,134 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,142 +325,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -341,187 +341,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,20 +552,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,11 +574,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,6 +609,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,24 +639,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,142 +667,160 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -811,20 +829,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -835,14 +841,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1200,453 +1203,377 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15" style="8" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="56" style="8" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="3" customWidth="1"/>
-    <col min="11" max="11" width="24.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="32.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="28" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="9" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="8" customWidth="1"/>
     <col min="13" max="13" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="193" customHeight="1" spans="1:13">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="14" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" ht="165" customHeight="1" spans="1:13">
-      <c r="A3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="7"/>
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="16"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" ht="84" customHeight="1" spans="1:11">
-      <c r="A4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="7"/>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" ht="42" customHeight="1" spans="1:11">
-      <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7"/>
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" ht="52" customHeight="1" spans="1:13">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="7"/>
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="16"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" ht="55.5" customHeight="1" spans="1:13">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="7"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="16"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" ht="57" customHeight="1" spans="1:13">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="7"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="16"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" ht="52.5" customHeight="1" spans="1:13">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="7"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="16"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" ht="51.75" customHeight="1" spans="1:13">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="7"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="16"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" ht="35.25" customHeight="1" spans="1:13">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:13">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:13">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" ht="26.25" customHeight="1" spans="1:13">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M15">
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="http://mf-backend.lyky.xyz:8188/backend/order/list" tooltip="http://mf-backend.lyky.xyz:8188/backend/order/list"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/order/list"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1657,14 +1584,141 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K3"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" ht="409.5" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="409.5" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="409.5" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/order/list"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/order/list"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/order/list"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/order/list"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/database/DemoAPITestCase.xlsx
+++ b/database/DemoAPITestCase.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$14</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>module</t>
   </si>
@@ -66,28 +66,59 @@
     <t>query_001</t>
   </si>
   <si>
+    <t>查询所有数据</t>
+  </si>
+  <si>
+    <t>backend/order/list</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":""}</t>
+  </si>
+  <si>
+    <t>SELECT
+            a.id,
+            a.created_at,
+            a.diag_id,
+            a.shop_name,
+            a.user_drugs_name,
+            c.age,
+            c.sex,
+            a.card_no,
+            a.phone,
+            b.disease_name,
+            a.status,
+            a.remark
+        FROM
+            mf_order a
+            LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
+            LEFT JOIN mf_order_user_drug c ON a.id = c.order_id
+        WHERE
+            a.shop_name = '安徽德胜大药房-双岗店'
+            AND a.merchant_id = 31
+        ORDER BY
+            a.created_at DESC
+            LIMIT 10</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>query_002</t>
+  </si>
+  <si>
     <t>查询手机号为15835547888的处方</t>
   </si>
   <si>
-    <t>http://mf-backend.lyky.xyz/backend/order/list</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>{"search":"15835547888","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":""}</t>
   </si>
   <si>
-    <t>[{"id":1493,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21629586437983","prescription_url":"upload/mf-backend-project/prescription/2021-11-16/b8b14bc6f33ba9014b825fac068a993f.png","status":3,"remark":"门店审核不通过","created_at":"1637042712","user_drug":{"id":514,"order_id":1493,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042712"},"disease":[{"order_id":1493,"disease_id":"8987","disease_name":"感冒"},{"order_id":1493,"disease_id":"16080","disease_name":"鼻塞"},{"order_id":1493,"disease_id":"27867","disease_name":"风寒外袭证"},{"order_id":1493,"disease_id":"9820","disease_name":"牙拥挤"}]},{"id":1476,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21621578066811","prescription_url":"","status":3,"remark":"不对症","created_at":"1636352894","user_drug":{"id":497,"order_id":1476,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1636352894"},"disease":[{"order_id":1476,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1357,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21553344682942","prescription_url":"upload/mf-backend-project/prescription/2021-09-01/95a94b1f9daa014daa04ef3413ae5c3d.png","status":4,"remark":"","created_at":"1630463783","user_drug":{"id":378,"order_id":1357,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":0,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1630463783"},"disease":[{"order_id":1357,"disease_id":"97648","disease_name":"中耳炎"}]}]</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>query_002</t>
+    <t>query_003</t>
   </si>
   <si>
     <t>查询处方状态未【已取消】的订单</t>
@@ -96,10 +127,7 @@
     <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":3}</t>
   </si>
   <si>
-    <t>[{"id":1493,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21629586437983","prescription_url":"upload/mf-backend-project/prescription/2021-11-16/b8b14bc6f33ba9014b825fac068a993f.png","status":3,"remark":"门店审核不通过","created_at":"1637042712","user_drug":{"id":514,"order_id":1493,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042712"},"disease":[{"order_id":1493,"disease_id":"8987","disease_name":"感冒"},{"order_id":1493,"disease_id":"16080","disease_name":"鼻塞"},{"order_id":1493,"disease_id":"27867","disease_name":"风寒外袭证"},{"order_id":1493,"disease_id":"9820","disease_name":"牙拥挤"}]},{"id":1492,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21629586369185","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1637042548","user_drug":{"id":513,"order_id":1492,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042548"},"disease":[{"order_id":1492,"disease_id":"27901","disease_name":"风热外袭证"}]},{"id":1491,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21629586437979","prescription_url":"","status":3,"remark":"用法用量错误","created_at":"1637042513","user_drug":{"id":512,"order_id":1491,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042513"},"disease":[{"order_id":1491,"disease_id":"98579","disease_name":"过敏性鼻炎"},{"order_id":1491,"disease_id":"27853","disease_name":"风邪外袭证"},{"order_id":1491,"disease_id":"98584","disease_name":"慢性鼻炎"}]},{"id":1489,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21629638086083","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637031217","user_drug":{"id":510,"order_id":1489,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637031217"},"disease":[{"order_id":1489,"disease_id":"8988","disease_name":"胃肠型感冒"}]},{"id":1488,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21629638086075","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637031090","user_drug":{"id":509,"order_id":1488,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637031090"},"disease":[{"order_id":1488,"disease_id":"8023","disease_name":"冠心病"},{"order_id":1488,"disease_id":"27344","disease_name":"中风病"},{"order_id":1488,"disease_id":"92831","disease_name":"缺铁性贫血"},{"order_id":1488,"disease_id":"97856","disease_name":"心绞痛"},{"order_id":1488,"disease_id":"9047","disease_name":"上呼吸道感染"}]},{"id":1487,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21629637896497","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637030971","user_drug":{"id":508,"order_id":1487,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637030971"},"disease":[{"order_id":1487,"disease_id":"8987","disease_name":"感冒"},{"order_id":1487,"disease_id":"98577","disease_name":"过敏性鼻炎(变应性鼻炎)"},{"order_id":1487,"disease_id":"9176","disease_name":"鼻窦炎"},{"order_id":1487,"disease_id":"100702","disease_name":"黑头粉刺"}]},{"id":1486,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21629637445842","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637030908","user_drug":{"id":507,"order_id":1486,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637030908"},"disease":[{"order_id":1486,"disease_id":"27867","disease_name":"风寒外袭证"},{"order_id":1486,"disease_id":"102434","disease_name":"骨质疏松"}]},{"id":1485,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21629638086063","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637030862","user_drug":{"id":506,"order_id":1485,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637030862"},"disease":[{"order_id":1485,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1484,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21624610654159","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1636621641","user_drug":{"id":505,"order_id":1484,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1636621641"},"disease":[{"order_id":1484,"disease_id":"12565","disease_name":"骨质增生"},{"order_id":1484,"disease_id":"101714","disease_name":"椎动脉型颈椎病"},{"order_id":1484,"disease_id":"101715","disease_name":"脊髓型颈椎病"},{"order_id":1484,"disease_id":"101111","disease_name":"骨关节炎"}]},{"id":1483,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21624607867997","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1636621600","user_drug":{"id":504,"order_id":1483,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1636621600"},"disease":[{"order_id":1483,"disease_id":"776","disease_name":"幽门螺旋杆菌感染"},{"order_id":1483,"disease_id":"12565","disease_name":"骨质增生"},{"order_id":1483,"disease_id":"9108","disease_name":"肺炎"},{"order_id":1483,"disease_id":"11306","disease_name":"软组织感染"},{"order_id":1483,"disease_id":"81949","disease_name":"钩端螺旋体病"}]}]</t>
-  </si>
-  <si>
-    <t>query_003</t>
+    <t>query_004</t>
   </si>
   <si>
     <t>查询处方状态为【待药师开方】，
@@ -109,10 +137,7 @@
     <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":27,"status":0}</t>
   </si>
   <si>
-    <t>[{"id":1479,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21621587929237","prescription_url":"","status":0,"remark":"","created_at":"1636369376","user_drug":{"id":500,"order_id":1479,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1636369376"},"disease":[{"order_id":1479,"disease_id":"79962","disease_name":"湿热"},{"order_id":1479,"disease_id":"98579","disease_name":"过敏性鼻炎"},{"order_id":1479,"disease_id":"16091","disease_name":"咽痛"},{"order_id":1479,"disease_id":"8987","disease_name":"感冒"},{"order_id":1479,"disease_id":"16331","disease_name":"头痛"},{"order_id":1479,"disease_id":"12565","disease_name":"骨质增生"}]}]</t>
-  </si>
-  <si>
-    <t>query_004</t>
+    <t>query_005</t>
   </si>
   <si>
     <t>查询日期在【2021/11/16-2021/11/18】
@@ -122,10 +147,7 @@
     <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":"","status":""}</t>
   </si>
   <si>
-    <t>[{"id":1493,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21629586437983","prescription_url":"upload/mf-backend-project/prescription/2021-11-16/b8b14bc6f33ba9014b825fac068a993f.png","status":3,"remark":"门店审核不通过","created_at":"1637042712","user_drug":{"id":514,"order_id":1493,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042712"},"disease":[{"order_id":1493,"disease_id":"8987","disease_name":"感冒"},{"order_id":1493,"disease_id":"16080","disease_name":"鼻塞"},{"order_id":1493,"disease_id":"27867","disease_name":"风寒外袭证"},{"order_id":1493,"disease_id":"9820","disease_name":"牙拥挤"}]},{"id":1492,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21629586369185","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1637042548","user_drug":{"id":513,"order_id":1492,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042548"},"disease":[{"order_id":1492,"disease_id":"27901","disease_name":"风热外袭证"}]},{"id":1491,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21629586437979","prescription_url":"","status":3,"remark":"用法用量错误","created_at":"1637042513","user_drug":{"id":512,"order_id":1491,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042513"},"disease":[{"order_id":1491,"disease_id":"98579","disease_name":"过敏性鼻炎"},{"order_id":1491,"disease_id":"27853","disease_name":"风邪外袭证"},{"order_id":1491,"disease_id":"98584","disease_name":"慢性鼻炎"}]},{"id":1490,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21629639020804","prescription_url":"upload/mf-backend-project/prescription/2021-11-16/2d92161c0b58d229cb93a95822cab026.png","status":5,"remark":"","created_at":"1637042465","user_drug":{"id":511,"order_id":1490,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042465"},"disease":[{"order_id":1490,"disease_id":"16091","disease_name":"咽痛"},{"order_id":1490,"disease_id":"8987","disease_name":"感冒"},{"order_id":1490,"disease_id":"102434","disease_name":"骨质疏松"}]},{"id":1489,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21629638086083","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637031217","user_drug":{"id":510,"order_id":1489,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637031217"},"disease":[{"order_id":1489,"disease_id":"8988","disease_name":"胃肠型感冒"}]},{"id":1488,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21629638086075","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637031090","user_drug":{"id":509,"order_id":1488,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637031090"},"disease":[{"order_id":1488,"disease_id":"8023","disease_name":"冠心病"},{"order_id":1488,"disease_id":"27344","disease_name":"中风病"},{"order_id":1488,"disease_id":"92831","disease_name":"缺铁性贫血"},{"order_id":1488,"disease_id":"97856","disease_name":"心绞痛"},{"order_id":1488,"disease_id":"9047","disease_name":"上呼吸道感染"}]},{"id":1487,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21629637896497","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637030971","user_drug":{"id":508,"order_id":1487,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637030971"},"disease":[{"order_id":1487,"disease_id":"8987","disease_name":"感冒"},{"order_id":1487,"disease_id":"98577","disease_name":"过敏性鼻炎(变应性鼻炎)"},{"order_id":1487,"disease_id":"9176","disease_name":"鼻窦炎"},{"order_id":1487,"disease_id":"100702","disease_name":"黑头粉刺"}]},{"id":1486,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21629637445842","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637030908","user_drug":{"id":507,"order_id":1486,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637030908"},"disease":[{"order_id":1486,"disease_id":"27867","disease_name":"风寒外袭证"},{"order_id":1486,"disease_id":"102434","disease_name":"骨质疏松"}]},{"id":1485,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21629638086063","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637030862","user_drug":{"id":506,"order_id":1485,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637030862"},"disease":[{"order_id":1485,"disease_id":"12565","disease_name":"骨质增生"}]}]</t>
-  </si>
-  <si>
-    <t>query_005</t>
+    <t>query_006</t>
   </si>
   <si>
     <t>查询日期在【2021/11/16-2021/11/18】,
@@ -134,9 +156,6 @@
   </si>
   <si>
     <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":27,"status":5}</t>
-  </si>
-  <si>
-    <t>[{"id":1490,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21629639020804","prescription_url":"upload/mf-backend-project/prescription/2021-11-16/2d92161c0b58d229cb93a95822cab026.png","status":5,"remark":"","created_at":"1637042465","user_drug":{"id":511,"order_id":1490,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042465"},"disease":[{"order_id":1490,"disease_id":"16091","disease_name":"咽痛"},{"order_id":1490,"disease_id":"8987","disease_name":"感冒"},{"order_id":1490,"disease_id":"102434","disease_name":"骨质疏松"}]}]</t>
   </si>
   <si>
     <t>{"id":1357,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21553344682942","prescription_url":"upload\/mf-backend-project\/prescription\/2021-09-01\/95a94b1f9daa014daa04ef3413ae5c3d.png","status":4,"remark":"","created_at":"1630463783","user_drug":{"id":378,"order_id":1357,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":0,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1630463783"},"disease":[{"order_id":1357,"disease_id":"97648","disease_name":"中耳炎"}]},{"id":1355,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21545315652261","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629776345","user_drug":{"id":376,"order_id":1355,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629776345"},"disease":[{"order_id":1355,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1354,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21545315664659","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-24\/806e2ff931b4ebe2320d5b81d983addf.png","status":5,"remark":"","created_at":"1629775691","user_drug":{"id":375,"order_id":1354,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775691"},"disease":[{"order_id":1354,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1353,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21545315652253","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629775454","user_drug":{"id":374,"order_id":1353,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775454"},"disease":[{"order_id":1353,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1352,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315711446","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629774360","user_drug":{"id":373,"order_id":1352,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774360"},"disease":[{"order_id":1352,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1351,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315684262","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-30\/28cc98e372687671376ed46cab4a4bd1.png","status":5,"remark":"","created_at":"1629774098","user_drug":{"id":372,"order_id":1351,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774098"},"disease":[{"order_id":1351,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1345,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"许贵林","card_no":"340111199206123537","phone":"18155256235","diag_id":"21539308080089","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-23\/a368cabd9c726129fef7eb1ea274ec17.png","status":5,"remark":"","created_at":"1629268043","user_drug":{"id":366,"order_id":1345,"name":"许贵林","card_no":"340111199206123537","phone":"18155256235","birthday":"1992-06-12","sex":1,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629268043"},"disease":[{"order_id":1345,"disease_id":"8987","disease_name":"感冒"}]},{"id":1340,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538307862410","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200226","user_drug":{"id":361,"order_id":1340,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200226"},"disease":[{"order_id":1340,"disease_id":"8987","disease_name":"感冒"}]},{"id":1339,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538304925388","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200151","user_drug":{"id":360,"order_id":1339,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200151"},"disease":[{"order_id":1339,"disease_id":"7877","disease_name":"高血压"}]},{"id":1338,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538303986713","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629198992","user_drug":{"id":359,"order_id":1338,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629198992"},"disease":[{"order_id":1338,"disease_id":"16080","disease_name":"鼻塞"}]}</t>
@@ -147,9 +166,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -190,6 +209,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -198,7 +232,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,15 +283,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,74 +323,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -310,17 +331,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,187 +360,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,11 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,17 +599,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,21 +641,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -647,6 +651,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -655,10 +674,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,16 +686,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,115 +704,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -804,19 +823,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -834,12 +859,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1198,105 +1217,105 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15" style="8" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="56" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="15" style="10" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="56" style="10" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="28" style="8" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="9" customWidth="1"/>
-    <col min="11" max="11" width="24.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="32.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="28" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="11" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="10" customWidth="1"/>
     <col min="13" max="13" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="193" customHeight="1" spans="1:13">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="165" customHeight="1" spans="1:13">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="15"/>
       <c r="M2" s="16"/>
     </row>
-    <row r="3" ht="165" customHeight="1" spans="1:13">
+    <row r="3" ht="84" customHeight="1" spans="1:13">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -1306,11 +1325,11 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" ht="84" customHeight="1" spans="1:11">
+      <c r="K3" s="1"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+    </row>
+    <row r="4" ht="42" customHeight="1" spans="1:12">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -1320,9 +1339,10 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" ht="42" customHeight="1" spans="1:11">
+      <c r="K4" s="4"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" ht="52" customHeight="1" spans="1:13">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -1332,9 +1352,10 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" ht="52" customHeight="1" spans="1:13">
+      <c r="K5" s="4"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" ht="55.5" customHeight="1" spans="1:13">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -1344,236 +1365,220 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="1"/>
+      <c r="K6" s="4"/>
+      <c r="L6"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" ht="55.5" customHeight="1" spans="1:13">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="5"/>
+    <row r="7" ht="57" customHeight="1" spans="1:13">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="1"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:13">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+    <row r="8" ht="52.5" customHeight="1" spans="1:13">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="1"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" ht="52.5" customHeight="1" spans="1:13">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+    <row r="9" ht="51.75" customHeight="1" spans="1:13">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="1"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" ht="51.75" customHeight="1" spans="1:13">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+    <row r="10" ht="35.25" customHeight="1" spans="1:13">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="1"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="17"/>
       <c r="M10" s="17"/>
     </row>
-    <row r="11" ht="35.25" customHeight="1" spans="1:13">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+    <row r="11" ht="30" customHeight="1" spans="1:13">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:13">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="5"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="13"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="11"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" ht="30" customHeight="1" spans="1:13">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+    <row r="14" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="11"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="13"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" ht="26.25" customHeight="1" spans="1:13">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+    <row r="15" spans="1:3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M15">
+  <autoFilter ref="A1:M14">
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/order/list"/>
+    <hyperlink ref="D2" r:id="rId1" display="backend/order/list"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1584,140 +1589,161 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" ht="409.5" spans="1:10">
+    <row r="1" ht="132" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" ht="120" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" ht="409.5" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" ht="409.5" spans="1:10">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="120" spans="1:10">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" ht="409.5" spans="1:10">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="144" spans="1:10">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="144" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/order/list"/>
-    <hyperlink ref="D2" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/order/list"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/order/list"/>
-    <hyperlink ref="D4" r:id="rId1" display="http://mf-backend.lyky.xyz/backend/order/list"/>
+    <hyperlink ref="D1" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D5" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D2" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D3" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D4" r:id="rId1" display="backend/order/list"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1737,7 +1763,7 @@
   <sheetData>
     <row r="1" ht="409.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/database/DemoAPITestCase.xlsx
+++ b/database/DemoAPITestCase.xlsx
@@ -1222,7 +1222,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/database/DemoAPITestCase.xlsx
+++ b/database/DemoAPITestCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>module</t>
   </si>
@@ -79,72 +79,32 @@
   </si>
   <si>
     <t>SELECT
-            a.id,
-            a.created_at,
-            a.diag_id,
-            a.shop_name,
-            a.user_drugs_name,
-            c.age,
-            c.sex,
-            a.card_no,
-            a.phone,
-            b.disease_name,
-            a.status,
-            a.remark
-        FROM
-            mf_order a
-            LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
-            LEFT JOIN mf_order_user_drug c ON a.id = c.order_id
-        WHERE
-            a.shop_name = '安徽德胜大药房-双岗店'
-            AND a.merchant_id = 31
-        ORDER BY
-            a.created_at DESC
-            LIMIT 10</t>
+ a.id,
+ a.created_at,
+ a.diag_id,
+ a.shop_name,
+ a.user_drugs_name,
+ c.age,
+ c.sex,
+ a.card_no,
+ a.phone,
+ b.disease_name,
+ a.status,
+ a.remark 
+FROM
+ mf_order a
+ LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
+ LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
+WHERE a.merchant_id = 31 
+ORDER BY
+ a.created_at DESC 
+ LIMIT 10</t>
   </si>
   <si>
     <t>json</t>
   </si>
   <si>
     <t>200</t>
-  </si>
-  <si>
-    <t>query_002</t>
-  </si>
-  <si>
-    <t>查询手机号为15835547888的处方</t>
-  </si>
-  <si>
-    <t>{"search":"15835547888","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":""}</t>
-  </si>
-  <si>
-    <t>query_003</t>
-  </si>
-  <si>
-    <t>查询处方状态未【已取消】的订单</t>
-  </si>
-  <si>
-    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":3}</t>
-  </si>
-  <si>
-    <t>query_004</t>
-  </si>
-  <si>
-    <t>查询处方状态为【待药师开方】，
-药店为【安徽德胜大药房-双岗店】</t>
-  </si>
-  <si>
-    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":27,"status":0}</t>
-  </si>
-  <si>
-    <t>query_005</t>
-  </si>
-  <si>
-    <t>查询日期在【2021/11/16-2021/11/18】
-的处方单</t>
-  </si>
-  <si>
-    <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":"","status":""}</t>
   </si>
   <si>
     <t>query_006</t>
@@ -153,6 +113,172 @@
     <t>查询日期在【2021/11/16-2021/11/18】,
 店铺：安徽德胜大药房-双岗店,
 状态：已完成</t>
+  </si>
+  <si>
+    <t>{"search":"王","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":27,"status":5}</t>
+  </si>
+  <si>
+    <t>SELECT
+ a.id,
+ a.created_at,
+ a.diag_id,
+ a.shop_name,
+ a.user_drugs_name,
+ c.age,
+ c.sex,
+ a.card_no,
+ a.phone,
+ b.disease_name,
+ a.status,
+ a.remark 
+FROM
+ mf_order a
+ LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
+ LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
+WHERE a.merchant_id = 31 
+and a.created_at &gt;=1636992000
+and a.created_at &lt;=1637251199
+and a.shop_id=27
+and a.status=5
+ORDER BY
+ a.created_at DESC 
+ LIMIT 10</t>
+  </si>
+  <si>
+    <t>query_002</t>
+  </si>
+  <si>
+    <t>查询手机号为15835547888的处方</t>
+  </si>
+  <si>
+    <t>{"search":"15835547888","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":""}</t>
+  </si>
+  <si>
+    <t>SELECT
+ a.id,
+ a.created_at,
+ a.diag_id,
+ a.shop_name,
+ a.user_drugs_name,
+ c.age,
+ c.sex,
+ a.card_no,
+ a.phone,
+ b.disease_name,
+ a.status,
+ a.remark 
+FROM mf_order a
+ LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
+ LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
+WHERE
+ a.merchant_id = 31 
+ AND a.phone = 15835547888 
+ORDER BY
+ a.created_at DESC 
+ LIMIT 10</t>
+  </si>
+  <si>
+    <t>query_003</t>
+  </si>
+  <si>
+    <t>查询处方状态未【待平台审核】的订单</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":1}</t>
+  </si>
+  <si>
+    <t>SELECT
+ a.id,
+ a.created_at,
+ a.diag_id,
+ a.shop_name,
+ a.user_drugs_name,
+ c.age,
+ c.sex,
+ a.card_no,
+ a.phone,
+ b.disease_name,
+ a.status,
+ a.remark 
+FROM
+ mf_order a
+ LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
+ LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
+WHERE a.merchant_id = 31 
+and a.`status`=1
+ORDER BY
+ a.created_at DESC 
+ LIMIT 10</t>
+  </si>
+  <si>
+    <t>query_004</t>
+  </si>
+  <si>
+    <t>查询处方状态为【待药师开方】，
+药店为【安徽德胜大药房-双岗店】</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":27,"status":0}</t>
+  </si>
+  <si>
+    <t>SELECT
+ a.id,
+ a.created_at,
+ a.diag_id,
+ a.shop_name,
+ a.user_drugs_name,
+ c.age,
+ c.sex,
+ a.card_no,
+ a.phone,
+ b.disease_name,
+ a.status,
+ a.remark 
+FROM
+ mf_order a
+ LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
+ LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
+WHERE a.merchant_id = 31 
+and a.shop_id=27
+and a.`status`=0
+ORDER BY
+ a.created_at DESC 
+ LIMIT 10</t>
+  </si>
+  <si>
+    <t>query_005</t>
+  </si>
+  <si>
+    <t>查询日期在【2021/11/16-2021/11/18】
+的处方单</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":"","status":""}</t>
+  </si>
+  <si>
+    <t>SELECT
+ a.id,
+ a.created_at,
+ a.diag_id,
+ a.shop_name,
+ a.user_drugs_name,
+ c.age,
+ c.sex,
+ a.card_no,
+ a.phone,
+ b.disease_name,
+ a.status,
+ a.remark 
+FROM
+ mf_order a
+ LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
+ LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
+WHERE a.merchant_id = 31 
+and a.created_at &gt;=1636992000
+and a.created_at &lt;=1637251199
+ORDER BY
+ a.created_at DESC 
+ LIMIT 10</t>
   </si>
   <si>
     <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":27,"status":5}</t>
@@ -166,8 +292,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -209,6 +335,127 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -218,128 +465,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,187 +486,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,21 +695,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -595,24 +706,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,6 +736,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -666,6 +768,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -674,10 +800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,16 +812,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,18 +830,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,94 +851,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1220,9 +1346,9 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1282,7 +1408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="165" customHeight="1" spans="1:13">
+    <row r="2" ht="312" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1315,21 +1441,40 @@
       <c r="L2" s="15"/>
       <c r="M2" s="16"/>
     </row>
-    <row r="3" ht="84" customHeight="1" spans="1:13">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+    <row r="3" ht="360" spans="1:13">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="15"/>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -1342,7 +1487,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" ht="52" customHeight="1" spans="1:13">
+    <row r="5" spans="1:13">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -1355,7 +1500,7 @@
       <c r="K5" s="4"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" ht="55.5" customHeight="1" spans="1:13">
+    <row r="6" spans="1:13">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -1366,10 +1511,9 @@
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6" s="4"/>
-      <c r="L6"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" ht="57" customHeight="1" spans="1:13">
+    <row r="7" spans="1:13">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -1579,6 +1723,7 @@
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D3" r:id="rId1" display="backend/order/list"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1591,21 +1736,21 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" ht="132" spans="1:10">
+    <row r="1" ht="409.5" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
@@ -1614,9 +1759,11 @@
         <v>17</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="7" t="s">
         <v>20</v>
@@ -1625,15 +1772,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" ht="120" spans="1:10">
+    <row r="2" ht="409.5" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>16</v>
@@ -1642,9 +1789,11 @@
         <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="6" t="s">
         <v>20</v>
@@ -1653,15 +1802,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" ht="120" spans="1:10">
+    <row r="3" ht="409.5" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>16</v>
@@ -1670,9 +1819,11 @@
         <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="6" t="s">
         <v>20</v>
@@ -1681,15 +1832,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" ht="144" spans="1:10">
+    <row r="4" ht="409.5" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>16</v>
@@ -1698,9 +1849,11 @@
         <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="6" t="s">
         <v>20</v>
@@ -1709,15 +1862,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="144" spans="1:10">
+    <row r="5" ht="409.5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
@@ -1726,9 +1879,11 @@
         <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="6" t="s">
         <v>20</v>
@@ -1763,7 +1918,7 @@
   <sheetData>
     <row r="1" ht="409.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/database/DemoAPITestCase.xlsx
+++ b/database/DemoAPITestCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
   <si>
     <t>module</t>
   </si>
@@ -107,6 +107,142 @@
     <t>200</t>
   </si>
   <si>
+    <t>query_002</t>
+  </si>
+  <si>
+    <t>查询手机号为15835547888的处方</t>
+  </si>
+  <si>
+    <t>{"search":"15835547888","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":""}</t>
+  </si>
+  <si>
+    <t>SELECT
+ a.id,
+ a.created_at,
+ a.diag_id,
+ a.shop_name,
+ a.user_drugs_name,
+ c.age,
+ c.sex,
+ a.card_no,
+ a.phone,
+ b.disease_name,
+ a.status,
+ a.remark 
+FROM mf_order a
+ LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
+ LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
+WHERE
+ a.merchant_id = 31 
+ AND a.phone = 15835547888 
+ORDER BY
+ a.created_at DESC 
+ LIMIT 10</t>
+  </si>
+  <si>
+    <t>query_003</t>
+  </si>
+  <si>
+    <t>查询处方状态未【待平台审核】的订单</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":1}</t>
+  </si>
+  <si>
+    <t>SELECT
+ a.id,
+ a.created_at,
+ a.diag_id,
+ a.shop_name,
+ a.user_drugs_name,
+ c.age,
+ c.sex,
+ a.card_no,
+ a.phone,
+ b.disease_name,
+ a.status,
+ a.remark 
+FROM
+ mf_order a
+ LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
+ LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
+WHERE a.merchant_id = 31 
+and a.`status`=1
+ORDER BY
+ a.created_at DESC 
+ LIMIT 10</t>
+  </si>
+  <si>
+    <t>query_004</t>
+  </si>
+  <si>
+    <t>查询处方状态为【待药师开方】，
+药店为【安徽德胜大药房-双岗店】</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":27,"status":0}</t>
+  </si>
+  <si>
+    <t>SELECT
+ a.id,
+ a.created_at,
+ a.diag_id,
+ a.shop_name,
+ a.user_drugs_name,
+ c.age,
+ c.sex,
+ a.card_no,
+ a.phone,
+ b.disease_name,
+ a.status,
+ a.remark 
+FROM
+ mf_order a
+ LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
+ LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
+WHERE a.merchant_id = 31 
+and a.shop_id=27
+and a.`status`=0
+ORDER BY
+ a.created_at DESC 
+ LIMIT 10</t>
+  </si>
+  <si>
+    <t>query_005</t>
+  </si>
+  <si>
+    <t>查询日期在【2021/11/16-2021/11/18】
+的处方单</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":"","status":""}</t>
+  </si>
+  <si>
+    <t>SELECT
+ a.id,
+ a.created_at,
+ a.diag_id,
+ a.shop_name,
+ a.user_drugs_name,
+ c.age,
+ c.sex,
+ a.card_no,
+ a.phone,
+ b.disease_name,
+ a.status,
+ a.remark 
+FROM
+ mf_order a
+ LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
+ LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
+WHERE a.merchant_id = 31 
+and a.created_at &gt;=1636992000
+and a.created_at &lt;=1637251199
+ORDER BY
+ a.created_at DESC 
+ LIMIT 10</t>
+  </si>
+  <si>
     <t>query_006</t>
   </si>
   <si>
@@ -115,7 +251,7 @@
 状态：已完成</t>
   </si>
   <si>
-    <t>{"search":"王","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":27,"status":5}</t>
+    <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":27,"status":5}</t>
   </si>
   <si>
     <t>SELECT
@@ -145,145 +281,6 @@
  LIMIT 10</t>
   </si>
   <si>
-    <t>query_002</t>
-  </si>
-  <si>
-    <t>查询手机号为15835547888的处方</t>
-  </si>
-  <si>
-    <t>{"search":"15835547888","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":""}</t>
-  </si>
-  <si>
-    <t>SELECT
- a.id,
- a.created_at,
- a.diag_id,
- a.shop_name,
- a.user_drugs_name,
- c.age,
- c.sex,
- a.card_no,
- a.phone,
- b.disease_name,
- a.status,
- a.remark 
-FROM mf_order a
- LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
- LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
-WHERE
- a.merchant_id = 31 
- AND a.phone = 15835547888 
-ORDER BY
- a.created_at DESC 
- LIMIT 10</t>
-  </si>
-  <si>
-    <t>query_003</t>
-  </si>
-  <si>
-    <t>查询处方状态未【待平台审核】的订单</t>
-  </si>
-  <si>
-    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":1}</t>
-  </si>
-  <si>
-    <t>SELECT
- a.id,
- a.created_at,
- a.diag_id,
- a.shop_name,
- a.user_drugs_name,
- c.age,
- c.sex,
- a.card_no,
- a.phone,
- b.disease_name,
- a.status,
- a.remark 
-FROM
- mf_order a
- LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
- LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
-WHERE a.merchant_id = 31 
-and a.`status`=1
-ORDER BY
- a.created_at DESC 
- LIMIT 10</t>
-  </si>
-  <si>
-    <t>query_004</t>
-  </si>
-  <si>
-    <t>查询处方状态为【待药师开方】，
-药店为【安徽德胜大药房-双岗店】</t>
-  </si>
-  <si>
-    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":27,"status":0}</t>
-  </si>
-  <si>
-    <t>SELECT
- a.id,
- a.created_at,
- a.diag_id,
- a.shop_name,
- a.user_drugs_name,
- c.age,
- c.sex,
- a.card_no,
- a.phone,
- b.disease_name,
- a.status,
- a.remark 
-FROM
- mf_order a
- LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
- LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
-WHERE a.merchant_id = 31 
-and a.shop_id=27
-and a.`status`=0
-ORDER BY
- a.created_at DESC 
- LIMIT 10</t>
-  </si>
-  <si>
-    <t>query_005</t>
-  </si>
-  <si>
-    <t>查询日期在【2021/11/16-2021/11/18】
-的处方单</t>
-  </si>
-  <si>
-    <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":"","status":""}</t>
-  </si>
-  <si>
-    <t>SELECT
- a.id,
- a.created_at,
- a.diag_id,
- a.shop_name,
- a.user_drugs_name,
- c.age,
- c.sex,
- a.card_no,
- a.phone,
- b.disease_name,
- a.status,
- a.remark 
-FROM
- mf_order a
- LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
- LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
-WHERE a.merchant_id = 31 
-and a.created_at &gt;=1636992000
-and a.created_at &lt;=1637251199
-ORDER BY
- a.created_at DESC 
- LIMIT 10</t>
-  </si>
-  <si>
-    <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":27,"status":5}</t>
-  </si>
-  <si>
     <t>{"id":1357,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21553344682942","prescription_url":"upload\/mf-backend-project\/prescription\/2021-09-01\/95a94b1f9daa014daa04ef3413ae5c3d.png","status":4,"remark":"","created_at":"1630463783","user_drug":{"id":378,"order_id":1357,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":0,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1630463783"},"disease":[{"order_id":1357,"disease_id":"97648","disease_name":"中耳炎"}]},{"id":1355,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21545315652261","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629776345","user_drug":{"id":376,"order_id":1355,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629776345"},"disease":[{"order_id":1355,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1354,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21545315664659","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-24\/806e2ff931b4ebe2320d5b81d983addf.png","status":5,"remark":"","created_at":"1629775691","user_drug":{"id":375,"order_id":1354,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775691"},"disease":[{"order_id":1354,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1353,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21545315652253","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629775454","user_drug":{"id":374,"order_id":1353,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775454"},"disease":[{"order_id":1353,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1352,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315711446","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629774360","user_drug":{"id":373,"order_id":1352,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774360"},"disease":[{"order_id":1352,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1351,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315684262","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-30\/28cc98e372687671376ed46cab4a4bd1.png","status":5,"remark":"","created_at":"1629774098","user_drug":{"id":372,"order_id":1351,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774098"},"disease":[{"order_id":1351,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1345,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"许贵林","card_no":"340111199206123537","phone":"18155256235","diag_id":"21539308080089","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-23\/a368cabd9c726129fef7eb1ea274ec17.png","status":5,"remark":"","created_at":"1629268043","user_drug":{"id":366,"order_id":1345,"name":"许贵林","card_no":"340111199206123537","phone":"18155256235","birthday":"1992-06-12","sex":1,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629268043"},"disease":[{"order_id":1345,"disease_id":"8987","disease_name":"感冒"}]},{"id":1340,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538307862410","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200226","user_drug":{"id":361,"order_id":1340,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200226"},"disease":[{"order_id":1340,"disease_id":"8987","disease_name":"感冒"}]},{"id":1339,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538304925388","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200151","user_drug":{"id":360,"order_id":1339,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200151"},"disease":[{"order_id":1339,"disease_id":"7877","disease_name":"高血压"}]},{"id":1338,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538303986713","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629198992","user_drug":{"id":359,"order_id":1338,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629198992"},"disease":[{"order_id":1338,"disease_id":"16080","disease_name":"鼻塞"}]}</t>
   </si>
 </sst>
@@ -292,8 +289,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -336,21 +333,120 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,98 +460,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -463,13 +467,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -486,127 +483,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,55 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,6 +688,35 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,26 +760,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -783,15 +789,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -800,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,16 +809,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -830,115 +827,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1346,9 +1343,9 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1441,20 +1438,20 @@
       <c r="L2" s="15"/>
       <c r="M2" s="16"/>
     </row>
-    <row r="3" ht="360" spans="1:13">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="336" spans="1:10">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1463,69 +1460,133 @@
       <c r="G3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5" s="4"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6" s="4"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="17"/>
+    </row>
+    <row r="4" ht="324" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="336" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="336" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="360" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" ht="52.5" customHeight="1" spans="1:13">
       <c r="A8" s="5"/>
@@ -1724,6 +1785,10 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="backend/order/list"/>
     <hyperlink ref="D3" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D7" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D4" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D5" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D6" r:id="rId1" display="backend/order/list"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1734,23 +1799,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" ht="409.5" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
@@ -1759,10 +1824,10 @@
         <v>17</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="7" t="s">
@@ -1773,32 +1838,32 @@
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1807,10 +1872,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>16</v>
@@ -1819,10 +1884,10 @@
         <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="6" t="s">
@@ -1837,10 +1902,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>16</v>
@@ -1849,10 +1914,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="6" t="s">
@@ -1867,10 +1932,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
@@ -1879,10 +1944,10 @@
         <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="6" t="s">
@@ -1892,13 +1957,44 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" ht="409.5" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" display="backend/order/list"/>
-    <hyperlink ref="D5" r:id="rId1" display="backend/order/list"/>
     <hyperlink ref="D2" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D6" r:id="rId1" display="backend/order/list"/>
     <hyperlink ref="D3" r:id="rId1" display="backend/order/list"/>
     <hyperlink ref="D4" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D5" r:id="rId1" display="backend/order/list"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1918,7 +2014,7 @@
   <sheetData>
     <row r="1" ht="409.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/database/DemoAPITestCase.xlsx
+++ b/database/DemoAPITestCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>module</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>post</t>
-  </si>
-  <si>
-    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":""}</t>
   </si>
   <si>
     <t>SELECT
@@ -101,7 +98,10 @@
  LIMIT 10</t>
   </si>
   <si>
-    <t>json</t>
+    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":""}</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>200</t>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>查询手机号为15835547888的处方</t>
-  </si>
-  <si>
-    <t>{"search":"15835547888","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":""}</t>
   </si>
   <si>
     <t>SELECT
@@ -140,13 +137,13 @@
  LIMIT 10</t>
   </si>
   <si>
+    <t>{"search":"15835547888","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":""}</t>
+  </si>
+  <si>
     <t>query_003</t>
   </si>
   <si>
     <t>查询处方状态未【待平台审核】的订单</t>
-  </si>
-  <si>
-    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":1}</t>
   </si>
   <si>
     <t>SELECT
@@ -173,14 +170,14 @@
  LIMIT 10</t>
   </si>
   <si>
+    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":1}</t>
+  </si>
+  <si>
     <t>query_004</t>
   </si>
   <si>
     <t>查询处方状态为【待药师开方】，
 药店为【安徽德胜大药房-双岗店】</t>
-  </si>
-  <si>
-    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":27,"status":0}</t>
   </si>
   <si>
     <t>SELECT
@@ -208,14 +205,14 @@
  LIMIT 10</t>
   </si>
   <si>
+    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":27,"status":0}</t>
+  </si>
+  <si>
     <t>query_005</t>
   </si>
   <si>
     <t>查询日期在【2021/11/16-2021/11/18】
 的处方单</t>
-  </si>
-  <si>
-    <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":"","status":""}</t>
   </si>
   <si>
     <t>SELECT
@@ -243,15 +240,15 @@
  LIMIT 10</t>
   </si>
   <si>
+    <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":"","status":""}</t>
+  </si>
+  <si>
     <t>query_006</t>
   </si>
   <si>
     <t>查询日期在【2021/11/16-2021/11/18】,
 店铺：安徽德胜大药房-双岗店,
 状态：已完成</t>
-  </si>
-  <si>
-    <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":27,"status":5}</t>
   </si>
   <si>
     <t>SELECT
@@ -281,6 +278,9 @@
  LIMIT 10</t>
   </si>
   <si>
+    <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":27,"status":5}</t>
+  </si>
+  <si>
     <t>{"id":1357,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21553344682942","prescription_url":"upload\/mf-backend-project\/prescription\/2021-09-01\/95a94b1f9daa014daa04ef3413ae5c3d.png","status":4,"remark":"","created_at":"1630463783","user_drug":{"id":378,"order_id":1357,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":0,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1630463783"},"disease":[{"order_id":1357,"disease_id":"97648","disease_name":"中耳炎"}]},{"id":1355,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21545315652261","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629776345","user_drug":{"id":376,"order_id":1355,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629776345"},"disease":[{"order_id":1355,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1354,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21545315664659","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-24\/806e2ff931b4ebe2320d5b81d983addf.png","status":5,"remark":"","created_at":"1629775691","user_drug":{"id":375,"order_id":1354,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775691"},"disease":[{"order_id":1354,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1353,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21545315652253","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629775454","user_drug":{"id":374,"order_id":1353,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775454"},"disease":[{"order_id":1353,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1352,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315711446","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629774360","user_drug":{"id":373,"order_id":1352,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774360"},"disease":[{"order_id":1352,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1351,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315684262","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-30\/28cc98e372687671376ed46cab4a4bd1.png","status":5,"remark":"","created_at":"1629774098","user_drug":{"id":372,"order_id":1351,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774098"},"disease":[{"order_id":1351,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1345,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"许贵林","card_no":"340111199206123537","phone":"18155256235","diag_id":"21539308080089","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-23\/a368cabd9c726129fef7eb1ea274ec17.png","status":5,"remark":"","created_at":"1629268043","user_drug":{"id":366,"order_id":1345,"name":"许贵林","card_no":"340111199206123537","phone":"18155256235","birthday":"1992-06-12","sex":1,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629268043"},"disease":[{"order_id":1345,"disease_id":"8987","disease_name":"感冒"}]},{"id":1340,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538307862410","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200226","user_drug":{"id":361,"order_id":1340,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200226"},"disease":[{"order_id":1340,"disease_id":"8987","disease_name":"感冒"}]},{"id":1339,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538304925388","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200151","user_drug":{"id":360,"order_id":1339,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200151"},"disease":[{"order_id":1339,"disease_id":"7877","disease_name":"高血压"}]},{"id":1338,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538303986713","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629198992","user_drug":{"id":359,"order_id":1338,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629198992"},"disease":[{"order_id":1338,"disease_id":"16080","disease_name":"鼻塞"}]}</t>
   </si>
 </sst>
@@ -289,10 +289,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -333,16 +333,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,42 +399,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -398,15 +407,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,27 +431,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,22 +467,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -483,13 +483,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,25 +621,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,139 +645,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,24 +688,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,17 +742,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,6 +774,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -797,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,133 +809,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1343,9 +1343,9 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:J7"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1421,13 +1421,12 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="7" t="s">
         <v>20</v>
       </c>
@@ -1454,13 +1453,12 @@
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="7" t="s">
         <v>20</v>
       </c>
@@ -1484,14 +1482,13 @@
       <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -1514,14 +1511,13 @@
       <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -1544,14 +1540,13 @@
       <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="9" t="s">
@@ -1574,14 +1569,13 @@
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -1801,201 +1795,85 @@
   <sheetPr/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <sheetData>
-    <row r="1" ht="409.5" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" ht="409.5" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" ht="409.5" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" ht="409.5" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="409.5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="409.5" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="9"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" display="backend/order/list"/>
-    <hyperlink ref="D2" r:id="rId1" display="backend/order/list"/>
-    <hyperlink ref="D6" r:id="rId1" display="backend/order/list"/>
-    <hyperlink ref="D3" r:id="rId1" display="backend/order/list"/>
-    <hyperlink ref="D4" r:id="rId1" display="backend/order/list"/>
-    <hyperlink ref="D5" r:id="rId1" display="backend/order/list"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/database/DemoAPITestCase.xlsx
+++ b/database/DemoAPITestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,10 +289,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -333,7 +333,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,7 +347,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,97 +446,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -460,9 +454,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,187 +483,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,17 +688,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,8 +734,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,8 +743,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,21 +789,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -797,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,16 +809,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,115 +827,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1342,10 +1342,10 @@
   <sheetPr/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/database/DemoAPITestCase.xlsx
+++ b/database/DemoAPITestCase.xlsx
@@ -8,18 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="测试环境" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$13</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="69">
   <si>
     <t>module</t>
   </si>
@@ -75,7 +75,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>SELECT
+    <t xml:space="preserve">SELECT
  a.id,
  a.created_at,
  a.diag_id,
@@ -92,10 +92,8 @@
  mf_order a
  LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
  LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
-WHERE a.merchant_id = 31 
-ORDER BY
- a.created_at DESC 
- LIMIT 10</t>
+WHERE a.merchant_id = %(merchant_id)s
+</t>
   </si>
   <si>
     <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":""}</t>
@@ -110,175 +108,140 @@
     <t>query_002</t>
   </si>
   <si>
+    <t>查询手机号为188560xxx31的处方</t>
+  </si>
+  <si>
+    <t>{"search":"18856009131","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":""}</t>
+  </si>
+  <si>
+    <t>query_003</t>
+  </si>
+  <si>
+    <t>查询处方状态未【待平台审核】的订单</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":1}</t>
+  </si>
+  <si>
+    <t>query_004</t>
+  </si>
+  <si>
+    <t>查询处方状态为【待药师开方】，药店为【XXXX大药房-xx路店】</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":18,"status":0}</t>
+  </si>
+  <si>
+    <t>query_005</t>
+  </si>
+  <si>
+    <t>查询日期在【2022/01/01-2022/01/18】的处方单</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":1640966400,"end_time":1642521599,"page":1,"limit":10,"shop_id":""}</t>
+  </si>
+  <si>
+    <t>query_006</t>
+  </si>
+  <si>
+    <t>查询日期在【2022/01/01-2022/01/18】店铺：【XXXX大药房-xx路店】 状态：【已完成】</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":1640966400,"end_time":1642521599,"page":1,"limit":10,"shop_id":18,"status":5}</t>
+  </si>
+  <si>
+    <t>query_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查询用药人姓名为【xx桃】的处方</t>
+  </si>
+  <si>
+    <t>{"search":"郑现桃","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":""}</t>
+  </si>
+  <si>
+    <t>query_008</t>
+  </si>
+  <si>
+    <t>查询日期【111】，店铺【XXXX大药房-XX路店】，用药人【xx桃】</t>
+  </si>
+  <si>
+    <t>{"search":"郑现桃","start_time":null,"end_time":null,"page":1,"limit":10,"shop_id":18}</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>start time 必须是数字</t>
+  </si>
+  <si>
+    <t>query_009</t>
+  </si>
+  <si>
+    <t>查询用药人姓名为【郑】的处方</t>
+  </si>
+  <si>
+    <t>{"search":"郑","start_time":"","end_time":"","page":1,"limit":10,"shop_id":""}</t>
+  </si>
+  <si>
+    <t>query_010</t>
+  </si>
+  <si>
+    <t>查询手机号为158的处方</t>
+  </si>
+  <si>
+    <t>{"search":"158","start_time":"","end_time":"","page":1,"limit":10,"shop_id":""}</t>
+  </si>
+  <si>
+    <t>传递错误的end_time 参数</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":1636992000,"end_time":"郑","page":1,"limit":10,"shop_id":27,"status":5}</t>
+  </si>
+  <si>
+    <t>end time 必须是数字</t>
+  </si>
+  <si>
+    <t>query_011</t>
+  </si>
+  <si>
+    <t>查询不存在的状态值</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":"test"}</t>
+  </si>
+  <si>
     <t>查询手机号为15835547888的处方</t>
   </si>
   <si>
-    <t>SELECT
- a.id,
- a.created_at,
- a.diag_id,
- a.shop_name,
- a.user_drugs_name,
- c.age,
- c.sex,
- a.card_no,
- a.phone,
- b.disease_name,
- a.status,
- a.remark 
-FROM mf_order a
- LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
- LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
-WHERE
- a.merchant_id = 31 
- AND a.phone = 15835547888 
-ORDER BY
- a.created_at DESC 
- LIMIT 10</t>
-  </si>
-  <si>
     <t>{"search":"15835547888","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":""}</t>
   </si>
   <si>
-    <t>query_003</t>
-  </si>
-  <si>
-    <t>查询处方状态未【待平台审核】的订单</t>
-  </si>
-  <si>
-    <t>SELECT
- a.id,
- a.created_at,
- a.diag_id,
- a.shop_name,
- a.user_drugs_name,
- c.age,
- c.sex,
- a.card_no,
- a.phone,
- b.disease_name,
- a.status,
- a.remark 
-FROM
- mf_order a
- LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
- LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
-WHERE a.merchant_id = 31 
-and a.`status`=1
-ORDER BY
- a.created_at DESC 
- LIMIT 10</t>
-  </si>
-  <si>
-    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":1}</t>
-  </si>
-  <si>
-    <t>query_004</t>
-  </si>
-  <si>
-    <t>查询处方状态为【待药师开方】，
-药店为【安徽德胜大药房-双岗店】</t>
-  </si>
-  <si>
-    <t>SELECT
- a.id,
- a.created_at,
- a.diag_id,
- a.shop_name,
- a.user_drugs_name,
- c.age,
- c.sex,
- a.card_no,
- a.phone,
- b.disease_name,
- a.status,
- a.remark 
-FROM
- mf_order a
- LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
- LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
-WHERE a.merchant_id = 31 
-and a.shop_id=27
-and a.`status`=0
-ORDER BY
- a.created_at DESC 
- LIMIT 10</t>
+    <t>查询处方状态为【待药师开方】，药店为【安徽德胜大药房-双岗店】</t>
   </si>
   <si>
     <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":27,"status":0}</t>
-  </si>
-  <si>
-    <t>query_005</t>
   </si>
   <si>
     <t>查询日期在【2021/11/16-2021/11/18】
 的处方单</t>
   </si>
   <si>
-    <t>SELECT
- a.id,
- a.created_at,
- a.diag_id,
- a.shop_name,
- a.user_drugs_name,
- c.age,
- c.sex,
- a.card_no,
- a.phone,
- b.disease_name,
- a.status,
- a.remark 
-FROM
- mf_order a
- LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
- LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
-WHERE a.merchant_id = 31 
-and a.created_at &gt;=1636992000
-and a.created_at &lt;=1637251199
-ORDER BY
- a.created_at DESC 
- LIMIT 10</t>
-  </si>
-  <si>
     <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":"","status":""}</t>
   </si>
   <si>
-    <t>query_006</t>
-  </si>
-  <si>
-    <t>查询日期在【2021/11/16-2021/11/18】,
-店铺：安徽德胜大药房-双岗店,
-状态：已完成</t>
-  </si>
-  <si>
-    <t>SELECT
- a.id,
- a.created_at,
- a.diag_id,
- a.shop_name,
- a.user_drugs_name,
- c.age,
- c.sex,
- a.card_no,
- a.phone,
- b.disease_name,
- a.status,
- a.remark 
-FROM
- mf_order a
- LEFT JOIN ( SELECT order_id, GROUP_CONCAT( disease_name SEPARATOR "," ) AS disease_name FROM mf_order_disease GROUP BY order_id ) b ON a.id = b.order_id
- LEFT JOIN mf_order_user_drug c ON a.id = c.order_id 
-WHERE a.merchant_id = 31 
-and a.created_at &gt;=1636992000
-and a.created_at &lt;=1637251199
-and a.shop_id=27
-and a.status=5
-ORDER BY
- a.created_at DESC 
- LIMIT 10</t>
+    <t>查询日期在【2021/11/16-2021/11/18】店铺：【安徽德胜大药房-双岗店】 状态：【已完成】</t>
   </si>
   <si>
     <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":27,"status":5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查询用药人姓名为【郑现桃】的处方</t>
+  </si>
+  <si>
+    <t>查询日期【111】，店铺【安徽德胜大药房-双岗店】，用药人【郑现桃】</t>
+  </si>
+  <si>
+    <t>{"search":"郑现桃","start_time":null,"end_time":null,"page":1,"limit":10,"shop_id":18,"status":""}</t>
   </si>
   <si>
     <t>{"id":1357,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21553344682942","prescription_url":"upload\/mf-backend-project\/prescription\/2021-09-01\/95a94b1f9daa014daa04ef3413ae5c3d.png","status":4,"remark":"","created_at":"1630463783","user_drug":{"id":378,"order_id":1357,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":0,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1630463783"},"disease":[{"order_id":1357,"disease_id":"97648","disease_name":"中耳炎"}]},{"id":1355,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21545315652261","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629776345","user_drug":{"id":376,"order_id":1355,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629776345"},"disease":[{"order_id":1355,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1354,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21545315664659","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-24\/806e2ff931b4ebe2320d5b81d983addf.png","status":5,"remark":"","created_at":"1629775691","user_drug":{"id":375,"order_id":1354,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775691"},"disease":[{"order_id":1354,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1353,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21545315652253","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629775454","user_drug":{"id":374,"order_id":1353,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775454"},"disease":[{"order_id":1353,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1352,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315711446","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629774360","user_drug":{"id":373,"order_id":1352,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774360"},"disease":[{"order_id":1352,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1351,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315684262","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-30\/28cc98e372687671376ed46cab4a4bd1.png","status":5,"remark":"","created_at":"1629774098","user_drug":{"id":372,"order_id":1351,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774098"},"disease":[{"order_id":1351,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1345,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"许贵林","card_no":"340111199206123537","phone":"18155256235","diag_id":"21539308080089","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-23\/a368cabd9c726129fef7eb1ea274ec17.png","status":5,"remark":"","created_at":"1629268043","user_drug":{"id":366,"order_id":1345,"name":"许贵林","card_no":"340111199206123537","phone":"18155256235","birthday":"1992-06-12","sex":1,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629268043"},"disease":[{"order_id":1345,"disease_id":"8987","disease_name":"感冒"}]},{"id":1340,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538307862410","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200226","user_drug":{"id":361,"order_id":1340,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200226"},"disease":[{"order_id":1340,"disease_id":"8987","disease_name":"感冒"}]},{"id":1339,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538304925388","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200151","user_drug":{"id":360,"order_id":1339,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200151"},"disease":[{"order_id":1339,"disease_id":"7877","disease_name":"高血压"}]},{"id":1338,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538303986713","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629198992","user_drug":{"id":359,"order_id":1338,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629198992"},"disease":[{"order_id":1338,"disease_id":"16080","disease_name":"鼻塞"}]}</t>
@@ -290,8 +253,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -333,6 +296,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -340,45 +325,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,6 +362,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -424,7 +387,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,15 +402,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,15 +423,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,43 +446,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,31 +614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,103 +626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,6 +651,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,8 +712,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,34 +721,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,6 +741,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -797,10 +760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,16 +772,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,115 +790,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -952,6 +915,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -961,36 +925,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1340,72 +1303,72 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15" style="10" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="56" style="10" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15" style="4" customWidth="1"/>
+    <col min="3" max="3" width="83.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56" style="4" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="28" style="10" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="11" customWidth="1"/>
-    <col min="11" max="11" width="24.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="15" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="4" customWidth="1"/>
     <col min="13" max="13" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="312" spans="1:13">
+    <row r="2" ht="300" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1424,20 +1387,20 @@
       <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16"/>
-    </row>
-    <row r="3" ht="336" spans="1:10">
+      <c r="L2" s="11"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" ht="48" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1453,327 +1416,427 @@
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" ht="36" spans="1:13">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" ht="324" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" ht="36" spans="1:13">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="336" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" ht="36" spans="1:13">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="336" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" ht="360" spans="1:10">
-      <c r="A7" s="5" t="s">
+      <c r="K6" s="5"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" ht="48" spans="1:13">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" ht="48" spans="1:13">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" ht="48" spans="1:13">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" ht="48" spans="1:13">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" ht="52.5" customHeight="1" spans="1:13">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" ht="51.75" customHeight="1" spans="1:13">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" ht="35.25" customHeight="1" spans="1:13">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:13">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="1:13">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="1:13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" ht="26.25" customHeight="1" spans="1:13">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" ht="36" spans="1:13">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" ht="48" spans="1:13">
+      <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" ht="36" spans="1:13">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M14">
+  <autoFilter ref="A1:M13">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -1783,6 +1846,12 @@
     <hyperlink ref="D4" r:id="rId1" display="backend/order/list"/>
     <hyperlink ref="D5" r:id="rId1" display="backend/order/list"/>
     <hyperlink ref="D6" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D8" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D9" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D10" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D11" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D12" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D13" r:id="rId1" display="backend/order/list"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1793,87 +1862,426 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A1" sqref="A1:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="7" max="7" width="53.5" customWidth="1"/>
+    <col min="8" max="8" width="28.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2"/>
+    <row r="1" ht="252" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" ht="48" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" ht="36" spans="1:13">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" ht="84" spans="1:13">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" ht="84" spans="1:13">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" ht="132" spans="1:13">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="9"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" ht="48" spans="1:13">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" ht="48" spans="1:13">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" ht="48" spans="1:13">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" ht="36" spans="1:13">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" ht="48" spans="1:13">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" ht="36" spans="1:13">
+      <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D2" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D6" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D3" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D4" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D5" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D7" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D8" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D9" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D10" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D11" r:id="rId1" display="backend/order/list"/>
+    <hyperlink ref="D12" r:id="rId1" display="backend/order/list"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1892,7 +2300,7 @@
   <sheetData>
     <row r="1" ht="409.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
